--- a/2020-06_Tőke Tamás_PRB-374_gkelsz.xlsx
+++ b/2020-06_Tőke Tamás_PRB-374_gkelsz.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="60">
   <si>
     <t>ÚTNYILVÁNTARTÁS</t>
   </si>
@@ -129,7 +129,7 @@
     <t>95876</t>
   </si>
   <si>
-    <t>100564</t>
+    <t>100732</t>
   </si>
   <si>
     <t>1396</t>
@@ -138,10 +138,10 @@
     <t>5,6</t>
   </si>
   <si>
-    <t>4542</t>
-  </si>
-  <si>
-    <t>2020-06-27</t>
+    <t>4511</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
   </si>
   <si>
     <t>Hibajavítás</t>
@@ -150,97 +150,67 @@
     <t>Székesfehérvár Udvardi utca 1A</t>
   </si>
   <si>
+    <t>Pécs Kincses út 1</t>
+  </si>
+  <si>
+    <t>AKHB2102/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>Mezőberény Kossuth tér 13.</t>
   </si>
   <si>
-    <t>K &amp; H BANK ZRT.</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Pécs Makay I.u.5</t>
-  </si>
-  <si>
-    <t>Sárvár Rákóczi u. 83.</t>
-  </si>
-  <si>
-    <t>2020-06-28</t>
-  </si>
-  <si>
-    <t>AKHB2123</t>
-  </si>
-  <si>
-    <t>Százhalombatta Damjanich u. 29.</t>
-  </si>
-  <si>
-    <t>AKHB2139</t>
-  </si>
-  <si>
-    <t>telephely</t>
-  </si>
-  <si>
-    <t>Hodmezovasarhely Szent László u.153</t>
-  </si>
-  <si>
-    <t>AKHK2593</t>
-  </si>
-  <si>
-    <t>Kazár Kossuth Lajos út 17.</t>
-  </si>
-  <si>
-    <t>AKHK2706</t>
-  </si>
-  <si>
-    <t>Budapest Lechner Ödön fasor 9</t>
-  </si>
-  <si>
-    <t>AKHK4969</t>
-  </si>
-  <si>
-    <t>Budapest Kapás u. 11-15.</t>
-  </si>
-  <si>
-    <t>S6T11593</t>
-  </si>
-  <si>
-    <t>Magán</t>
-  </si>
-  <si>
-    <t>Magánhasználat</t>
-  </si>
-  <si>
-    <t>Monostorpályi Landler tér 4.</t>
-  </si>
-  <si>
-    <t>AKHB2122</t>
+    <t>AKHB2092/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>Szombathely Éhen Gyula tér 2.</t>
+  </si>
+  <si>
+    <t>AKHB2078/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Debrecen Füredi út 27.</t>
+  </si>
+  <si>
+    <t>AKHB2072/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>telephely/telephely</t>
   </si>
   <si>
     <t>Kazincbarcika Attila u. 10/b</t>
   </si>
   <si>
-    <t>AKHB2488</t>
-  </si>
-  <si>
-    <t>Budapest Váci út 15-19.</t>
-  </si>
-  <si>
-    <t>S01004/ERSTE BANK HUNGARY Zrt</t>
-  </si>
-  <si>
-    <t>Budapest Bajcsy Zsilinszky út 12.</t>
-  </si>
-  <si>
-    <t>S6T17612/Sopron Bank Zrt.</t>
-  </si>
-  <si>
-    <t>Pázmánd Fő utca 87.</t>
-  </si>
-  <si>
-    <t>S6T57812/MTB Magyar Takarékszövetkezeti Bank</t>
-  </si>
-  <si>
-    <t>telephely/telephely</t>
+    <t>AKHB2488/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Edelény Antal György u. 3.</t>
+  </si>
+  <si>
+    <t>AKHB2144/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Hódmezővásárhely Hódtó u. 17-19.</t>
+  </si>
+  <si>
+    <t>AKHB2304/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Paks Tolnai u. 2/1</t>
+  </si>
+  <si>
+    <t>AKHB2200/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Pécs Búza tér 6/a.</t>
+  </si>
+  <si>
+    <t>AKHK2926/K &amp; H BANK ZRT.</t>
   </si>
 </sst>
 </file>
@@ -1275,13 +1245,13 @@
         <v>40</v>
       </c>
       <c r="G10" s="25" t="n">
-        <v>96130.0</v>
+        <v>96082.0</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I10" s="21" t="n">
-        <v>254.0</v>
+        <v>206.0</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>41</v>
@@ -1298,16 +1268,16 @@
         <v>37</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G11" s="25" t="n">
-        <v>96384.0</v>
+        <v>96336.0</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>0.0</v>
@@ -1324,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>37</v>
@@ -1333,19 +1303,19 @@
         <v>38</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="25" t="n">
-        <v>96598.0</v>
+        <v>96542.0</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I12" s="21" t="n">
-        <v>214.0</v>
+        <v>206.0</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>41</v>
@@ -1359,28 +1329,28 @@
         <v>4</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G13" s="25" t="n">
-        <v>96812.0</v>
+        <v>96705.0</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I13" s="21" t="n">
-        <v>214.0</v>
+        <v>163.0</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>41</v>
@@ -1394,28 +1364,28 @@
         <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="25" t="n">
-        <v>97026.0</v>
+        <v>96943.0</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I14" s="21" t="n">
-        <v>214.0</v>
+        <v>238.0</v>
       </c>
       <c r="J14" s="19" t="s">
         <v>41</v>
@@ -1426,28 +1396,28 @@
         <v>6</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G15" s="25" t="n">
-        <v>97240.0</v>
+        <v>97411.0</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" s="21" t="n">
-        <v>214.0</v>
+        <v>468.0</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>41</v>
@@ -1458,28 +1428,28 @@
         <v>7</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="F16" s="21" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16" s="25" t="n">
-        <v>97375.0</v>
+        <v>97721.0</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I16" s="21" t="n">
-        <v>135.0</v>
+        <v>310.0</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>41</v>
@@ -1490,28 +1460,28 @@
         <v>8</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>40</v>
-      </c>
       <c r="G17" s="25" t="n">
-        <v>97510.0</v>
+        <v>97975.0</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I17" s="21" t="n">
-        <v>135.0</v>
+        <v>254.0</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>41</v>
@@ -1528,22 +1498,22 @@
         <v>37</v>
       </c>
       <c r="D18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>42</v>
-      </c>
       <c r="F18" s="21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G18" s="25" t="n">
-        <v>97724.0</v>
+        <v>98224.0</v>
       </c>
       <c r="H18" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I18" s="21" t="n">
-        <v>214.0</v>
+        <v>249.0</v>
       </c>
       <c r="J18" s="19" t="s">
         <v>41</v>
@@ -1560,22 +1530,22 @@
         <v>37</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G19" s="25" t="n">
-        <v>97938.0</v>
+        <v>98492.0</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I19" s="21" t="n">
-        <v>214.0</v>
+        <v>268.0</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>41</v>
@@ -1592,22 +1562,22 @@
         <v>37</v>
       </c>
       <c r="D20" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>46</v>
-      </c>
       <c r="F20" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G20" s="25" t="n">
-        <v>97988.0</v>
+        <v>98760.0</v>
       </c>
       <c r="H20" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I20" s="21" t="n">
-        <v>50.0</v>
+        <v>268.0</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>41</v>
@@ -1624,22 +1594,22 @@
         <v>37</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G21" s="25" t="n">
-        <v>98038.0</v>
+        <v>99014.0</v>
       </c>
       <c r="H21" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I21" s="21" t="n">
-        <v>50.0</v>
+        <v>254.0</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>41</v>
@@ -1656,22 +1626,22 @@
         <v>37</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G22" s="25" t="n">
-        <v>98269.0</v>
+        <v>99255.0</v>
       </c>
       <c r="H22" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I22" s="21" t="n">
-        <v>231.0</v>
+        <v>241.0</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>41</v>
@@ -1688,22 +1658,22 @@
         <v>37</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="25" t="n">
-        <v>98500.0</v>
+        <v>99543.0</v>
       </c>
       <c r="H23" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I23" s="21" t="n">
-        <v>231.0</v>
+        <v>288.0</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>41</v>
@@ -1723,19 +1693,19 @@
         <v>38</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G24" s="25" t="n">
-        <v>98687.0</v>
+        <v>99706.0</v>
       </c>
       <c r="H24" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I24" s="21" t="n">
-        <v>187.0</v>
+        <v>163.0</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>41</v>
@@ -1752,22 +1722,22 @@
         <v>37</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G25" s="25" t="n">
-        <v>98874.0</v>
+        <v>99871.0</v>
       </c>
       <c r="H25" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I25" s="21" t="n">
-        <v>187.0</v>
+        <v>165.0</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>41</v>
@@ -1787,19 +1757,19 @@
         <v>38</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G26" s="25" t="n">
-        <v>98935.0</v>
+        <v>100110.0</v>
       </c>
       <c r="H26" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I26" s="21" t="n">
-        <v>61.0</v>
+        <v>239.0</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>41</v>
@@ -1816,22 +1786,22 @@
         <v>37</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G27" s="25" t="n">
-        <v>98996.0</v>
+        <v>100294.0</v>
       </c>
       <c r="H27" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I27" s="21" t="n">
-        <v>61.0</v>
+        <v>184.0</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>41</v>
@@ -1848,22 +1818,22 @@
         <v>37</v>
       </c>
       <c r="D28" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>55</v>
-      </c>
       <c r="F28" s="21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G28" s="25" t="n">
-        <v>99057.0</v>
+        <v>100387.0</v>
       </c>
       <c r="H28" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I28" s="21" t="n">
-        <v>61.0</v>
+        <v>93.0</v>
       </c>
       <c r="J28" s="19" t="s">
         <v>41</v>
@@ -1880,22 +1850,22 @@
         <v>37</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G29" s="25" t="n">
-        <v>99118.0</v>
+        <v>100551.0</v>
       </c>
       <c r="H29" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I29" s="21" t="n">
-        <v>61.0</v>
+        <v>164.0</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>41</v>
@@ -1909,285 +1879,141 @@
         <v>44</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G30" s="25" t="n">
-        <v>99241.0</v>
+        <v>100732.0</v>
       </c>
       <c r="H30" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I30" s="21" t="n">
-        <v>123.0</v>
+        <v>181.0</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>22</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="25" t="n">
-        <v>99581.0</v>
-      </c>
-      <c r="H31" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I31" s="21" t="n">
-        <v>340.0</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>23</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="25" t="n">
-        <v>99883.0</v>
-      </c>
-      <c r="H32" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I32" s="21" t="n">
-        <v>302.0</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>24</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="25" t="n">
-        <v>100131.0</v>
-      </c>
-      <c r="H33" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I33" s="21" t="n">
-        <v>248.0</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>25</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="25" t="n">
-        <v>100418.0</v>
-      </c>
-      <c r="H34" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I34" s="21" t="n">
-        <v>287.0</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>26</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="25" t="n">
-        <v>100487.0</v>
-      </c>
-      <c r="H35" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I35" s="21" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>27</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="25" t="n">
-        <v>100495.0</v>
-      </c>
-      <c r="H36" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I36" s="21" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>28</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="25" t="n">
-        <v>100542.0</v>
-      </c>
-      <c r="H37" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I37" s="21" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>29</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="25" t="n">
-        <v>100564.0</v>
-      </c>
-      <c r="H38" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I38" s="21" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
